--- a/QMU/QMU_app/dataset/moca/moca.xlsx
+++ b/QMU/QMU_app/dataset/moca/moca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\MC3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\QMU_app\dataset\moca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D640B1-0C89-44E6-A9EA-142E36AAFCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB72D87-12B3-4D4D-88D8-B7668E25230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13785" yWindow="8460" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,17 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -410,7 +411,7 @@
         <v>200</v>
       </c>
       <c r="B1" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C1" s="1">
         <v>90</v>
@@ -424,7 +425,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
         <v>90</v>
@@ -438,7 +439,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>90</v>
@@ -455,7 +456,7 @@
         <v>200</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
@@ -481,13 +482,13 @@
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1">
         <v>90</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -495,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1">
         <v>90</v>
@@ -512,7 +513,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>90</v>
@@ -526,16 +527,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
         <v>90</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -543,7 +544,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1">
         <v>90</v>
@@ -557,7 +558,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>90</v>
@@ -571,13 +572,13 @@
         <v>300</v>
       </c>
       <c r="B11" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -585,13 +586,13 @@
         <v>300</v>
       </c>
       <c r="B12" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1">
         <v>90</v>
       </c>
       <c r="D12" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,13 +600,13 @@
         <v>300</v>
       </c>
       <c r="B13" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1">
         <v>90</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -613,13 +614,13 @@
         <v>300</v>
       </c>
       <c r="B14" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1">
         <v>90</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -627,7 +628,7 @@
         <v>300</v>
       </c>
       <c r="B15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>90</v>
@@ -655,7 +656,7 @@
         <v>300</v>
       </c>
       <c r="B17" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>90</v>
@@ -666,16 +667,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B18" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,10 +684,10 @@
         <v>400</v>
       </c>
       <c r="B19" s="1">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C19" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -697,7 +698,7 @@
         <v>400</v>
       </c>
       <c r="B20" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C20" s="1">
         <v>90</v>
@@ -711,10 +712,10 @@
         <v>400</v>
       </c>
       <c r="B21" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -725,7 +726,7 @@
         <v>400</v>
       </c>
       <c r="B22" s="1">
-        <v>296.5</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>90</v>
@@ -739,10 +740,10 @@
         <v>400</v>
       </c>
       <c r="B23" s="1">
-        <v>296.5</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -753,10 +754,10 @@
         <v>400</v>
       </c>
       <c r="B24" s="1">
-        <v>296.5</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -767,13 +768,13 @@
         <v>400</v>
       </c>
       <c r="B25" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C25" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,13 +782,13 @@
         <v>400</v>
       </c>
       <c r="B26" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C26" s="1">
         <v>60</v>
       </c>
       <c r="D26" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,13 +796,13 @@
         <v>400</v>
       </c>
       <c r="B27" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C27" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,13 +810,13 @@
         <v>400</v>
       </c>
       <c r="B28" s="1">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="C28" s="1">
         <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,13 +824,13 @@
         <v>400</v>
       </c>
       <c r="B29" s="1">
-        <v>270</v>
+        <v>296.5</v>
       </c>
       <c r="C29" s="1">
         <v>90</v>
       </c>
       <c r="D29" s="1">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,10 +838,10 @@
         <v>400</v>
       </c>
       <c r="B30" s="1">
-        <v>285</v>
+        <v>296.5</v>
       </c>
       <c r="C30" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -851,10 +852,10 @@
         <v>400</v>
       </c>
       <c r="B31" s="1">
-        <v>285</v>
+        <v>296.5</v>
       </c>
       <c r="C31" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -862,13 +863,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="C32" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -876,83 +877,83 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B33" s="1">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B35" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B36" s="1">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="C36" s="1">
         <v>90</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B37" s="1">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="C37" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B38" s="1">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="C38" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -960,365 +961,365 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B39" s="1">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="C39" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B40" s="1">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="C40" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B41" s="1">
+        <v>270</v>
+      </c>
+      <c r="C41" s="1">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>400</v>
+      </c>
+      <c r="B42" s="1">
+        <v>285</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>400</v>
+      </c>
+      <c r="B43" s="1">
+        <v>285</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>400</v>
+      </c>
+      <c r="B44" s="1">
+        <v>285</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>400</v>
+      </c>
+      <c r="B45" s="1">
+        <v>285</v>
+      </c>
+      <c r="C45" s="1">
+        <v>90</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>400</v>
+      </c>
+      <c r="B46" s="1">
+        <v>200</v>
+      </c>
+      <c r="C46" s="1">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>400</v>
+      </c>
+      <c r="B47" s="1">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>400</v>
+      </c>
+      <c r="B48" s="1">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1">
+        <v>90</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>400</v>
+      </c>
+      <c r="B49" s="1">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1">
+        <v>90</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>400</v>
+      </c>
+      <c r="B50" s="1">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1">
+        <v>90</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>400</v>
+      </c>
+      <c r="B51" s="1">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>500</v>
+      </c>
+      <c r="B52" s="1">
+        <v>480</v>
+      </c>
+      <c r="C52" s="1">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>500</v>
+      </c>
+      <c r="B53" s="1">
+        <v>400</v>
+      </c>
+      <c r="C53" s="1">
+        <v>90</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>500</v>
+      </c>
+      <c r="B54" s="1">
+        <v>280</v>
+      </c>
+      <c r="C54" s="1">
+        <v>90</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>500</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1">
+        <v>90</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>500</v>
+      </c>
+      <c r="B56" s="1">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1">
+        <v>90</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>500</v>
+      </c>
+      <c r="B57" s="1">
+        <v>95</v>
+      </c>
+      <c r="C57" s="1">
+        <v>90</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>500</v>
+      </c>
+      <c r="B58" s="1">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>500</v>
+      </c>
+      <c r="B59" s="1">
+        <v>90</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>500</v>
+      </c>
+      <c r="B60" s="1">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>500</v>
+      </c>
+      <c r="B61" s="1">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1">
+        <v>90</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>500</v>
+      </c>
+      <c r="B62" s="1">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1">
+        <v>90</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>500</v>
+      </c>
+      <c r="B63" s="1">
         <v>50</v>
       </c>
-      <c r="C41" s="1">
-        <v>90</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>200</v>
-      </c>
-      <c r="B42">
-        <v>82.5</v>
-      </c>
-      <c r="C42">
-        <v>90</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>200</v>
-      </c>
-      <c r="B43">
-        <v>90</v>
-      </c>
-      <c r="C43">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>200</v>
-      </c>
-      <c r="B44">
-        <v>97.5</v>
-      </c>
-      <c r="C44">
-        <v>90</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>200</v>
-      </c>
-      <c r="B45">
-        <v>90</v>
-      </c>
-      <c r="C45">
-        <v>90</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>200</v>
-      </c>
-      <c r="B46">
-        <v>82.5</v>
-      </c>
-      <c r="C46">
-        <v>90</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>200</v>
-      </c>
-      <c r="B47">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>90</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>200</v>
-      </c>
-      <c r="B48">
-        <v>82.5</v>
-      </c>
-      <c r="C48">
-        <v>90</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>200</v>
-      </c>
-      <c r="B49">
-        <v>75</v>
-      </c>
-      <c r="C49">
-        <v>90</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>200</v>
-      </c>
-      <c r="B50">
-        <v>82.5</v>
-      </c>
-      <c r="C50">
-        <v>90</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>200</v>
-      </c>
-      <c r="B51">
-        <v>90</v>
-      </c>
-      <c r="C51">
-        <v>90</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>200</v>
-      </c>
-      <c r="B52">
-        <v>97.5</v>
-      </c>
-      <c r="C52">
-        <v>90</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>200</v>
-      </c>
-      <c r="B53">
-        <v>90</v>
-      </c>
-      <c r="C53">
-        <v>90</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>200</v>
-      </c>
-      <c r="B54">
-        <v>82.5</v>
-      </c>
-      <c r="C54">
-        <v>90</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>200</v>
-      </c>
-      <c r="B55">
-        <v>75</v>
-      </c>
-      <c r="C55">
-        <v>90</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>200</v>
-      </c>
-      <c r="B56">
-        <v>82.5</v>
-      </c>
-      <c r="C56">
-        <v>90</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>200</v>
-      </c>
-      <c r="B57">
-        <v>75</v>
-      </c>
-      <c r="C57">
-        <v>90</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>200</v>
-      </c>
-      <c r="B58">
-        <v>82.5</v>
-      </c>
-      <c r="C58">
-        <v>90</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>200</v>
-      </c>
-      <c r="B59">
-        <v>90</v>
-      </c>
-      <c r="C59">
-        <v>90</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>200</v>
-      </c>
-      <c r="B60">
-        <v>82.5</v>
-      </c>
-      <c r="C60">
-        <v>90</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>200</v>
-      </c>
-      <c r="B61">
-        <v>90</v>
-      </c>
-      <c r="C61">
-        <v>90</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>200</v>
-      </c>
-      <c r="B62">
-        <v>97.5</v>
-      </c>
-      <c r="C62">
-        <v>90</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>200</v>
-      </c>
-      <c r="B63">
-        <v>90</v>
-      </c>
-      <c r="C63">
-        <v>90</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
+      <c r="C63" s="1">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>200</v>
-      </c>
-      <c r="B64">
-        <v>82.5</v>
-      </c>
-      <c r="C64">
-        <v>90</v>
-      </c>
-      <c r="D64">
+      <c r="A64" s="1">
+        <v>500</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>90</v>
+      </c>
+      <c r="D64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1327,13 +1328,13 @@
         <v>200</v>
       </c>
       <c r="B65">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C65">
         <v>90</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,7 +1342,7 @@
         <v>200</v>
       </c>
       <c r="B66">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>90</v>
@@ -1355,13 +1356,13 @@
         <v>200</v>
       </c>
       <c r="B67">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C67">
         <v>90</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1370,7 @@
         <v>200</v>
       </c>
       <c r="B68">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C68">
         <v>90</v>
@@ -1383,13 +1384,13 @@
         <v>200</v>
       </c>
       <c r="B69">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C69">
         <v>90</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,13 +1398,13 @@
         <v>200</v>
       </c>
       <c r="B70">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="C70">
         <v>90</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1412,7 @@
         <v>200</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C71">
         <v>90</v>
@@ -1425,7 +1426,7 @@
         <v>200</v>
       </c>
       <c r="B72">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>90</v>
@@ -1439,7 +1440,7 @@
         <v>200</v>
       </c>
       <c r="B73">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C73">
         <v>90</v>
@@ -1453,13 +1454,13 @@
         <v>200</v>
       </c>
       <c r="B74">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C74">
         <v>90</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,13 +1468,13 @@
         <v>200</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C75">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,13 +1482,13 @@
         <v>200</v>
       </c>
       <c r="B76">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>90</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,13 +1496,13 @@
         <v>200</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C77">
         <v>90</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,13 +1510,13 @@
         <v>200</v>
       </c>
       <c r="B78">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,13 +1524,13 @@
         <v>200</v>
       </c>
       <c r="B79">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C79">
         <v>90</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1538,7 @@
         <v>200</v>
       </c>
       <c r="B80">
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="C80">
         <v>90</v>
@@ -1551,13 +1552,13 @@
         <v>200</v>
       </c>
       <c r="B81">
-        <v>60</v>
+        <v>87.5</v>
       </c>
       <c r="C81">
         <v>90</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,7 +1566,7 @@
         <v>200</v>
       </c>
       <c r="B82">
-        <v>67.5</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>90</v>
@@ -1579,7 +1580,7 @@
         <v>200</v>
       </c>
       <c r="B83">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C83">
         <v>90</v>
@@ -1593,7 +1594,7 @@
         <v>200</v>
       </c>
       <c r="B84">
-        <v>67.5</v>
+        <v>85</v>
       </c>
       <c r="C84">
         <v>90</v>
@@ -1607,13 +1608,13 @@
         <v>200</v>
       </c>
       <c r="B85">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C85">
         <v>90</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1622,7 @@
         <v>200</v>
       </c>
       <c r="B86">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>90</v>
@@ -1635,7 +1636,7 @@
         <v>200</v>
       </c>
       <c r="B87">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="C87">
         <v>90</v>
@@ -1649,7 +1650,7 @@
         <v>200</v>
       </c>
       <c r="B88">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>90</v>
@@ -1663,13 +1664,13 @@
         <v>200</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C89">
         <v>90</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,13 +1678,13 @@
         <v>200</v>
       </c>
       <c r="B90">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>90</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1692,7 @@
         <v>200</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -1705,7 +1706,7 @@
         <v>300</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <v>90</v>
@@ -1719,13 +1720,13 @@
         <v>300</v>
       </c>
       <c r="B93">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C93">
         <v>90</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1734,7 @@
         <v>300</v>
       </c>
       <c r="B94">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C94">
         <v>90</v>
@@ -1747,13 +1748,13 @@
         <v>300</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C95">
         <v>90</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,13 +1762,13 @@
         <v>300</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C96">
         <v>90</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,7 +1776,7 @@
         <v>300</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C97">
         <v>90</v>
@@ -1789,7 +1790,7 @@
         <v>300</v>
       </c>
       <c r="B98">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C98">
         <v>90</v>
@@ -1803,7 +1804,7 @@
         <v>300</v>
       </c>
       <c r="B99">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C99">
         <v>90</v>
@@ -1817,7 +1818,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C100">
         <v>90</v>
@@ -1831,13 +1832,13 @@
         <v>300</v>
       </c>
       <c r="B101">
-        <v>85</v>
+        <v>77.5</v>
       </c>
       <c r="C101">
         <v>90</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,13 +1860,13 @@
         <v>300</v>
       </c>
       <c r="B103">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C103">
         <v>90</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,13 +1874,13 @@
         <v>300</v>
       </c>
       <c r="B104">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C104">
         <v>90</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1888,7 @@
         <v>300</v>
       </c>
       <c r="B105">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C105">
         <v>90</v>
@@ -1915,7 +1916,7 @@
         <v>300</v>
       </c>
       <c r="B107">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C107">
         <v>90</v>
@@ -1929,13 +1930,13 @@
         <v>300</v>
       </c>
       <c r="B108">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C108">
         <v>90</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1944,7 @@
         <v>300</v>
       </c>
       <c r="B109">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C109">
         <v>90</v>
@@ -1957,7 +1958,7 @@
         <v>300</v>
       </c>
       <c r="B110">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C110">
         <v>90</v>
@@ -1971,7 +1972,7 @@
         <v>300</v>
       </c>
       <c r="B111">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C111">
         <v>90</v>
@@ -1985,7 +1986,7 @@
         <v>300</v>
       </c>
       <c r="B112">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C112">
         <v>90</v>
@@ -1999,7 +2000,7 @@
         <v>300</v>
       </c>
       <c r="B113">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C113">
         <v>90</v>
@@ -2013,7 +2014,7 @@
         <v>300</v>
       </c>
       <c r="B114">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C114">
         <v>90</v>
@@ -2027,13 +2028,13 @@
         <v>300</v>
       </c>
       <c r="B115">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C115">
         <v>90</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,13 +2042,13 @@
         <v>300</v>
       </c>
       <c r="B116">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C116">
         <v>90</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,13 +2056,13 @@
         <v>300</v>
       </c>
       <c r="B117">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C117">
         <v>90</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,13 +2070,13 @@
         <v>300</v>
       </c>
       <c r="B118">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C118">
         <v>90</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2084,7 @@
         <v>300</v>
       </c>
       <c r="B119">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C119">
         <v>90</v>
@@ -2097,13 +2098,13 @@
         <v>300</v>
       </c>
       <c r="B120">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C120">
         <v>90</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,7 +2112,7 @@
         <v>300</v>
       </c>
       <c r="B121">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C121">
         <v>90</v>
@@ -2125,7 +2126,7 @@
         <v>300</v>
       </c>
       <c r="B122">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -2139,13 +2140,13 @@
         <v>300</v>
       </c>
       <c r="B123">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C123">
         <v>90</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2154,7 @@
         <v>300</v>
       </c>
       <c r="B124">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C124">
         <v>90</v>
@@ -2167,7 +2168,7 @@
         <v>300</v>
       </c>
       <c r="B125">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C125">
         <v>90</v>
@@ -2181,13 +2182,13 @@
         <v>300</v>
       </c>
       <c r="B126">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C126">
         <v>90</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,7 +2196,7 @@
         <v>300</v>
       </c>
       <c r="B127">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C127">
         <v>90</v>
@@ -2209,7 +2210,7 @@
         <v>300</v>
       </c>
       <c r="B128">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C128">
         <v>90</v>
@@ -2223,7 +2224,7 @@
         <v>300</v>
       </c>
       <c r="B129">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C129">
         <v>90</v>
@@ -2237,7 +2238,7 @@
         <v>300</v>
       </c>
       <c r="B130">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C130">
         <v>90</v>
@@ -2251,13 +2252,13 @@
         <v>300</v>
       </c>
       <c r="B131">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="C131">
         <v>90</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +2266,7 @@
         <v>300</v>
       </c>
       <c r="B132">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C132">
         <v>90</v>
@@ -2279,7 +2280,7 @@
         <v>300</v>
       </c>
       <c r="B133">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="C133">
         <v>90</v>
@@ -2293,7 +2294,7 @@
         <v>300</v>
       </c>
       <c r="B134">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C134">
         <v>90</v>
@@ -2304,10 +2305,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B135">
-        <v>95</v>
+        <v>83.5</v>
       </c>
       <c r="C135">
         <v>90</v>
@@ -2318,66 +2319,66 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B136">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C136">
         <v>90</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B137">
-        <v>85</v>
+        <v>83.5</v>
       </c>
       <c r="C137">
         <v>90</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B138">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C138">
         <v>90</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B139">
-        <v>85</v>
+        <v>83.5</v>
       </c>
       <c r="C139">
         <v>90</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B140">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C140">
         <v>90</v>
@@ -2388,16 +2389,16 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B141">
-        <v>95</v>
+        <v>83.5</v>
       </c>
       <c r="C141">
         <v>90</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,13 +2406,13 @@
         <v>400</v>
       </c>
       <c r="B142">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C142">
         <v>90</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,13 +2420,13 @@
         <v>400</v>
       </c>
       <c r="B143">
-        <v>220</v>
+        <v>83.5</v>
       </c>
       <c r="C143">
         <v>90</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,35 +2434,35 @@
         <v>400</v>
       </c>
       <c r="B144">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C144">
         <v>90</v>
       </c>
       <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>400</v>
       </c>
       <c r="B145">
-        <v>220</v>
+        <v>83.5</v>
       </c>
       <c r="C145">
         <v>90</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>400</v>
       </c>
       <c r="B146">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C146">
         <v>90</v>
@@ -2470,26 +2471,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>400</v>
       </c>
       <c r="B147">
-        <v>200</v>
+        <v>83.5</v>
       </c>
       <c r="C147">
         <v>90</v>
       </c>
       <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>400</v>
       </c>
       <c r="B148">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="C148">
         <v>90</v>
@@ -2498,26 +2499,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>400</v>
       </c>
       <c r="B149">
-        <v>220</v>
+        <v>83.5</v>
       </c>
       <c r="C149">
         <v>90</v>
       </c>
       <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>400</v>
       </c>
       <c r="B150">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C150">
         <v>90</v>
@@ -2526,40 +2527,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>400</v>
       </c>
       <c r="B151">
-        <v>200</v>
+        <v>83.5</v>
       </c>
       <c r="C151">
         <v>90</v>
       </c>
       <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>400</v>
       </c>
       <c r="B152">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="C152">
         <v>90</v>
       </c>
       <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>400</v>
       </c>
       <c r="B153">
-        <v>200</v>
+        <v>83.5</v>
       </c>
       <c r="C153">
         <v>90</v>
@@ -2568,12 +2569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>400</v>
       </c>
       <c r="B154">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C154">
         <v>90</v>
@@ -2582,124 +2583,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>400</v>
-      </c>
-      <c r="B155" s="1">
-        <v>296.5</v>
-      </c>
-      <c r="C155" s="1">
-        <v>90</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>400</v>
-      </c>
-      <c r="B156" s="1">
-        <v>296.5</v>
-      </c>
-      <c r="C156" s="1">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>400</v>
+      </c>
+      <c r="B155" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="C155" s="3">
+        <v>90</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>400</v>
+      </c>
+      <c r="B156" s="3">
+        <v>87</v>
+      </c>
+      <c r="C156" s="3">
+        <v>90</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>400</v>
+      </c>
+      <c r="B157" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="C157" s="3">
+        <v>90</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>400</v>
+      </c>
+      <c r="B158" s="3">
+        <v>87</v>
+      </c>
+      <c r="C158" s="3">
+        <v>90</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>400</v>
+      </c>
+      <c r="B159" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="C159" s="3">
+        <v>90</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>400</v>
+      </c>
+      <c r="B160" s="3">
+        <v>87</v>
+      </c>
+      <c r="C160" s="3">
+        <v>90</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>400</v>
+      </c>
+      <c r="B161" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="C161" s="3">
+        <v>90</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>400</v>
+      </c>
+      <c r="B162" s="3">
         <v>80</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>400</v>
-      </c>
-      <c r="B157" s="1">
-        <v>296.5</v>
-      </c>
-      <c r="C157" s="1">
-        <v>60</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>400</v>
-      </c>
-      <c r="B158" s="1">
-        <v>250</v>
-      </c>
-      <c r="C158" s="1">
-        <v>90</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>400</v>
-      </c>
-      <c r="B159" s="1">
-        <v>250</v>
-      </c>
-      <c r="C159" s="1">
-        <v>60</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>400</v>
-      </c>
-      <c r="B160" s="1">
-        <v>250</v>
-      </c>
-      <c r="C160" s="1">
-        <v>30</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>400</v>
-      </c>
-      <c r="B161" s="1">
-        <v>270</v>
-      </c>
-      <c r="C161" s="1">
-        <v>30</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>400</v>
-      </c>
-      <c r="B162" s="1">
-        <v>270</v>
-      </c>
-      <c r="C162" s="1">
-        <v>90</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C162" s="3">
+        <v>90</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>400</v>
       </c>
       <c r="B163">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C163">
         <v>90</v>
@@ -2708,12 +2717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>400</v>
       </c>
       <c r="B164">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="C164">
         <v>90</v>
@@ -2722,12 +2731,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>400</v>
       </c>
       <c r="B165">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C165">
         <v>90</v>
@@ -2736,12 +2745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>400</v>
       </c>
       <c r="B166">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="C166">
         <v>90</v>
@@ -2750,12 +2759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>400</v>
       </c>
       <c r="B167">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C167">
         <v>90</v>
@@ -2764,26 +2773,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>400</v>
       </c>
       <c r="B168">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="C168">
         <v>90</v>
       </c>
       <c r="D168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>400</v>
       </c>
       <c r="B169">
-        <v>210</v>
+        <v>90.5</v>
       </c>
       <c r="C169">
         <v>90</v>
@@ -2792,12 +2801,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>400</v>
       </c>
       <c r="B170">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C170">
         <v>90</v>
@@ -2806,26 +2815,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>400</v>
       </c>
       <c r="B171">
-        <v>190</v>
+        <v>83.5</v>
       </c>
       <c r="C171">
         <v>90</v>
       </c>
       <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>400</v>
       </c>
       <c r="B172">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C172">
         <v>90</v>
@@ -2834,26 +2843,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>400</v>
       </c>
       <c r="B173">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C173">
         <v>90</v>
       </c>
       <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>400</v>
       </c>
       <c r="B174">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C174">
         <v>90</v>
@@ -2862,26 +2871,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>400</v>
       </c>
       <c r="B175">
-        <v>190</v>
+        <v>83.5</v>
       </c>
       <c r="C175">
         <v>90</v>
       </c>
       <c r="D175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>400</v>
       </c>
       <c r="B176">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C176">
         <v>90</v>
@@ -2895,7 +2904,7 @@
         <v>400</v>
       </c>
       <c r="B177">
-        <v>190</v>
+        <v>76.5</v>
       </c>
       <c r="C177">
         <v>90</v>
@@ -2909,13 +2918,13 @@
         <v>400</v>
       </c>
       <c r="B178">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C178">
         <v>90</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,7 +2932,7 @@
         <v>400</v>
       </c>
       <c r="B179">
-        <v>190</v>
+        <v>83.5</v>
       </c>
       <c r="C179">
         <v>90</v>
@@ -2937,13 +2946,13 @@
         <v>400</v>
       </c>
       <c r="B180">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C180">
         <v>90</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -2951,7 +2960,7 @@
         <v>400</v>
       </c>
       <c r="B181">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C181">
         <v>90</v>
@@ -2965,7 +2974,7 @@
         <v>400</v>
       </c>
       <c r="B182">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C182">
         <v>90</v>
@@ -2979,7 +2988,7 @@
         <v>400</v>
       </c>
       <c r="B183">
-        <v>210</v>
+        <v>83.5</v>
       </c>
       <c r="C183">
         <v>90</v>
@@ -2993,293 +3002,293 @@
         <v>400</v>
       </c>
       <c r="B184">
+        <v>80</v>
+      </c>
+      <c r="C184">
+        <v>90</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>400</v>
+      </c>
+      <c r="B185" s="3">
+        <v>400</v>
+      </c>
+      <c r="C185" s="3">
+        <v>80</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>400</v>
+      </c>
+      <c r="B186" s="3">
+        <v>400</v>
+      </c>
+      <c r="C186" s="3">
+        <v>60</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>400</v>
+      </c>
+      <c r="B187" s="3">
+        <v>400</v>
+      </c>
+      <c r="C187" s="3">
+        <v>90</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>400</v>
+      </c>
+      <c r="B188" s="3">
+        <v>400</v>
+      </c>
+      <c r="C188" s="3">
+        <v>30</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>400</v>
+      </c>
+      <c r="B189" s="3">
+        <v>296.5</v>
+      </c>
+      <c r="C189" s="3">
+        <v>90</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>400</v>
+      </c>
+      <c r="B190" s="3">
+        <v>296.5</v>
+      </c>
+      <c r="C190" s="3">
+        <v>80</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>400</v>
+      </c>
+      <c r="B191" s="3">
+        <v>296.5</v>
+      </c>
+      <c r="C191" s="3">
+        <v>60</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>400</v>
+      </c>
+      <c r="B192" s="3">
+        <v>250</v>
+      </c>
+      <c r="C192" s="3">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>400</v>
+      </c>
+      <c r="B193" s="3">
         <v>200</v>
       </c>
-      <c r="C184">
-        <v>90</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>400</v>
-      </c>
-      <c r="B185">
-        <v>210</v>
-      </c>
-      <c r="C185">
-        <v>90</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>400</v>
-      </c>
-      <c r="B186">
-        <v>200</v>
-      </c>
-      <c r="C186">
-        <v>90</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>400</v>
-      </c>
-      <c r="B187">
-        <v>210</v>
-      </c>
-      <c r="C187">
-        <v>90</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>400</v>
-      </c>
-      <c r="B188">
-        <v>200</v>
-      </c>
-      <c r="C188">
-        <v>90</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>400</v>
-      </c>
-      <c r="B189">
-        <v>210</v>
-      </c>
-      <c r="C189">
-        <v>90</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>400</v>
-      </c>
-      <c r="B190">
-        <v>220</v>
-      </c>
-      <c r="C190">
-        <v>90</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>400</v>
-      </c>
-      <c r="B191">
-        <v>210</v>
-      </c>
-      <c r="C191">
-        <v>90</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>400</v>
-      </c>
-      <c r="B192">
-        <v>200</v>
-      </c>
-      <c r="C192">
-        <v>90</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>500</v>
-      </c>
-      <c r="B193">
-        <v>96</v>
-      </c>
-      <c r="C193">
-        <v>90</v>
-      </c>
-      <c r="D193">
+      <c r="C193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>500</v>
-      </c>
-      <c r="B194">
-        <v>97</v>
-      </c>
-      <c r="C194">
-        <v>90</v>
-      </c>
-      <c r="D194">
+      <c r="A194" s="3">
+        <v>400</v>
+      </c>
+      <c r="B194" s="3">
+        <v>150</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>500</v>
-      </c>
-      <c r="B195">
-        <v>98</v>
-      </c>
-      <c r="C195">
-        <v>90</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
+      <c r="A195" s="3">
+        <v>400</v>
+      </c>
+      <c r="B195" s="3">
+        <v>100</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>500</v>
-      </c>
-      <c r="B196">
-        <v>97</v>
-      </c>
-      <c r="C196">
-        <v>90</v>
-      </c>
-      <c r="D196">
+      <c r="A196" s="3">
+        <v>400</v>
+      </c>
+      <c r="B196" s="3">
+        <v>250</v>
+      </c>
+      <c r="C196" s="3">
+        <v>90</v>
+      </c>
+      <c r="D196" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>500</v>
-      </c>
-      <c r="B197">
-        <v>96</v>
-      </c>
-      <c r="C197">
-        <v>90</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
+      <c r="A197" s="3">
+        <v>400</v>
+      </c>
+      <c r="B197" s="3">
+        <v>250</v>
+      </c>
+      <c r="C197" s="3">
+        <v>60</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>500</v>
-      </c>
-      <c r="B198">
-        <v>97</v>
-      </c>
-      <c r="C198">
-        <v>90</v>
-      </c>
-      <c r="D198">
-        <v>1</v>
+      <c r="A198" s="3">
+        <v>400</v>
+      </c>
+      <c r="B198" s="3">
+        <v>250</v>
+      </c>
+      <c r="C198" s="3">
+        <v>30</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>500</v>
-      </c>
-      <c r="B199">
-        <v>96</v>
-      </c>
-      <c r="C199">
-        <v>90</v>
-      </c>
-      <c r="D199">
+      <c r="A199" s="3">
+        <v>400</v>
+      </c>
+      <c r="B199" s="3">
+        <v>270</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>500</v>
-      </c>
-      <c r="B200">
-        <v>95</v>
-      </c>
-      <c r="C200">
-        <v>90</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
+      <c r="A200" s="3">
+        <v>400</v>
+      </c>
+      <c r="B200" s="3">
+        <v>270</v>
+      </c>
+      <c r="C200" s="3">
+        <v>30</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>500</v>
-      </c>
-      <c r="B201">
-        <v>96</v>
-      </c>
-      <c r="C201">
-        <v>90</v>
-      </c>
-      <c r="D201">
+      <c r="A201" s="3">
+        <v>400</v>
+      </c>
+      <c r="B201" s="3">
+        <v>270</v>
+      </c>
+      <c r="C201" s="3">
+        <v>90</v>
+      </c>
+      <c r="D201" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>500</v>
-      </c>
-      <c r="B202">
-        <v>95</v>
-      </c>
-      <c r="C202">
-        <v>90</v>
-      </c>
-      <c r="D202">
+      <c r="A202" s="3">
+        <v>400</v>
+      </c>
+      <c r="B202" s="3">
+        <v>285</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>500</v>
-      </c>
-      <c r="B203">
-        <v>94</v>
-      </c>
-      <c r="C203">
-        <v>90</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
+      <c r="A203" s="3">
+        <v>400</v>
+      </c>
+      <c r="B203" s="3">
+        <v>285</v>
+      </c>
+      <c r="C203" s="3">
+        <v>30</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>500</v>
-      </c>
-      <c r="B204">
-        <v>95</v>
-      </c>
-      <c r="C204">
-        <v>90</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
+      <c r="A204" s="3">
+        <v>400</v>
+      </c>
+      <c r="B204" s="3">
+        <v>285</v>
+      </c>
+      <c r="C204" s="3">
+        <v>60</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3287,7 +3296,7 @@
         <v>500</v>
       </c>
       <c r="B205">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C205">
         <v>90</v>
@@ -3301,7 +3310,7 @@
         <v>500</v>
       </c>
       <c r="B206">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C206">
         <v>90</v>
@@ -3315,7 +3324,7 @@
         <v>500</v>
       </c>
       <c r="B207">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C207">
         <v>90</v>
@@ -3329,7 +3338,7 @@
         <v>500</v>
       </c>
       <c r="B208">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C208">
         <v>90</v>
@@ -3343,13 +3352,13 @@
         <v>500</v>
       </c>
       <c r="B209">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C209">
         <v>90</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,13 +3366,13 @@
         <v>500</v>
       </c>
       <c r="B210">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C210">
         <v>90</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,7 +3380,7 @@
         <v>500</v>
       </c>
       <c r="B211">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C211">
         <v>90</v>
@@ -3385,7 +3394,7 @@
         <v>500</v>
       </c>
       <c r="B212">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C212">
         <v>90</v>
@@ -3399,13 +3408,13 @@
         <v>500</v>
       </c>
       <c r="B213">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C213">
         <v>90</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3413,13 +3422,13 @@
         <v>500</v>
       </c>
       <c r="B214">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C214">
         <v>90</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3427,13 +3436,13 @@
         <v>500</v>
       </c>
       <c r="B215">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C215">
         <v>90</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3441,13 +3450,13 @@
         <v>500</v>
       </c>
       <c r="B216">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C216">
         <v>90</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3455,7 +3464,7 @@
         <v>500</v>
       </c>
       <c r="B217">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C217">
         <v>90</v>
@@ -3469,13 +3478,13 @@
         <v>500</v>
       </c>
       <c r="B218">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C218">
         <v>90</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3483,13 +3492,13 @@
         <v>500</v>
       </c>
       <c r="B219">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C219">
         <v>90</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3497,7 +3506,7 @@
         <v>500</v>
       </c>
       <c r="B220">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C220">
         <v>90</v>
@@ -3511,13 +3520,13 @@
         <v>500</v>
       </c>
       <c r="B221">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C221">
         <v>90</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3525,13 +3534,13 @@
         <v>500</v>
       </c>
       <c r="B222">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C222">
         <v>90</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3539,7 +3548,7 @@
         <v>500</v>
       </c>
       <c r="B223">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C223">
         <v>90</v>
@@ -3553,7 +3562,7 @@
         <v>500</v>
       </c>
       <c r="B224">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C224">
         <v>90</v>
@@ -3567,7 +3576,7 @@
         <v>500</v>
       </c>
       <c r="B225">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C225">
         <v>90</v>
@@ -3581,13 +3590,13 @@
         <v>500</v>
       </c>
       <c r="B226">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C226">
         <v>90</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3595,7 +3604,7 @@
         <v>500</v>
       </c>
       <c r="B227">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C227">
         <v>90</v>
@@ -3609,13 +3618,13 @@
         <v>500</v>
       </c>
       <c r="B228">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C228">
         <v>90</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3623,7 +3632,7 @@
         <v>500</v>
       </c>
       <c r="B229">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C229">
         <v>90</v>
@@ -3637,7 +3646,7 @@
         <v>500</v>
       </c>
       <c r="B230">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C230">
         <v>90</v>
@@ -3651,13 +3660,13 @@
         <v>500</v>
       </c>
       <c r="B231">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C231">
         <v>90</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3665,13 +3674,13 @@
         <v>500</v>
       </c>
       <c r="B232">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C232">
         <v>90</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3679,7 +3688,7 @@
         <v>500</v>
       </c>
       <c r="B233">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C233">
         <v>90</v>
@@ -3693,7 +3702,7 @@
         <v>500</v>
       </c>
       <c r="B234">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C234">
         <v>90</v>
@@ -3707,12 +3716,278 @@
         <v>500</v>
       </c>
       <c r="B235">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C235">
         <v>90</v>
       </c>
       <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>500</v>
+      </c>
+      <c r="B236">
+        <v>90</v>
+      </c>
+      <c r="C236">
+        <v>90</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>500</v>
+      </c>
+      <c r="B237">
+        <v>89</v>
+      </c>
+      <c r="C237">
+        <v>90</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>500</v>
+      </c>
+      <c r="B238">
+        <v>90</v>
+      </c>
+      <c r="C238">
+        <v>90</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>500</v>
+      </c>
+      <c r="B239">
+        <v>89</v>
+      </c>
+      <c r="C239">
+        <v>90</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>500</v>
+      </c>
+      <c r="B240">
+        <v>90</v>
+      </c>
+      <c r="C240">
+        <v>90</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>500</v>
+      </c>
+      <c r="B241">
+        <v>91</v>
+      </c>
+      <c r="C241">
+        <v>90</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>500</v>
+      </c>
+      <c r="B242">
+        <v>92</v>
+      </c>
+      <c r="C242">
+        <v>90</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>500</v>
+      </c>
+      <c r="B243">
+        <v>93</v>
+      </c>
+      <c r="C243">
+        <v>90</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>500</v>
+      </c>
+      <c r="B244">
+        <v>92</v>
+      </c>
+      <c r="C244">
+        <v>90</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>500</v>
+      </c>
+      <c r="B245">
+        <v>91</v>
+      </c>
+      <c r="C245">
+        <v>90</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>500</v>
+      </c>
+      <c r="B246">
+        <v>90</v>
+      </c>
+      <c r="C246">
+        <v>90</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>500</v>
+      </c>
+      <c r="B247">
+        <v>91</v>
+      </c>
+      <c r="C247">
+        <v>90</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>500</v>
+      </c>
+      <c r="B248">
+        <v>92</v>
+      </c>
+      <c r="C248">
+        <v>90</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>500</v>
+      </c>
+      <c r="B249">
+        <v>91</v>
+      </c>
+      <c r="C249">
+        <v>90</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>500</v>
+      </c>
+      <c r="B250">
+        <v>90</v>
+      </c>
+      <c r="C250">
+        <v>90</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>500</v>
+      </c>
+      <c r="B251">
+        <v>91</v>
+      </c>
+      <c r="C251">
+        <v>90</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>500</v>
+      </c>
+      <c r="B252">
+        <v>90</v>
+      </c>
+      <c r="C252">
+        <v>90</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>500</v>
+      </c>
+      <c r="B253">
+        <v>91</v>
+      </c>
+      <c r="C253">
+        <v>90</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>500</v>
+      </c>
+      <c r="B254">
+        <v>92</v>
+      </c>
+      <c r="C254">
+        <v>90</v>
+      </c>
+      <c r="D254">
         <v>1</v>
       </c>
     </row>
